--- a/documentação/backlogs/productBacklog.xlsx
+++ b/documentação/backlogs/productBacklog.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F771DC7-BB77-4335-97CE-CF0570142965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projeto_Individual\documentação\backlogs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9BA25AB-B19B-41E3-A4BB-1B9E17870BCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -22,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -93,9 +96,6 @@
     <t>Perfil</t>
   </si>
   <si>
-    <t>Página que irá conter os posts, biografia do usuário, além da quantidade de seguidores.</t>
-  </si>
-  <si>
     <t>Botão dashboard</t>
   </si>
   <si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>O usuário poderá visualizar os insigths do seu perfil e irá poder tomar ações com base nos números.</t>
+  </si>
+  <si>
+    <t>Página que irá conter os posts usuário e as interações nele contidas.</t>
   </si>
 </sst>
 </file>
@@ -585,26 +588,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="3.75" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21">
+    <row r="1" spans="1:6" ht="20.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75">
+    <row r="2" spans="1:6" ht="18">
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -618,7 +621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="72.75">
+    <row r="3" spans="1:6" ht="71.25">
       <c r="A3" s="8"/>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -633,7 +636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="57.75">
+    <row r="4" spans="1:6" ht="57">
       <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
@@ -647,7 +650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="72.75">
+    <row r="5" spans="1:6" ht="71.25">
       <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
@@ -661,7 +664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="72.75">
+    <row r="6" spans="1:6" ht="71.25">
       <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
@@ -675,7 +678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="72.75">
+    <row r="7" spans="1:6" ht="71.25">
       <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
@@ -689,7 +692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="115.5">
+    <row r="8" spans="1:6" ht="114">
       <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
@@ -703,12 +706,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="72.75">
+    <row r="9" spans="1:6" ht="57">
       <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E9" s="5">
         <v>2</v>
@@ -717,12 +720,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="72.75">
+    <row r="10" spans="1:6" ht="71.25">
       <c r="C10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -731,12 +734,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="87">
+    <row r="11" spans="1:6" ht="85.5">
       <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E11" s="5">
         <v>8</v>

--- a/documentação/backlogs/productBacklog.xlsx
+++ b/documentação/backlogs/productBacklog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projeto_Individual\documentação\backlogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9BA25AB-B19B-41E3-A4BB-1B9E17870BCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD3A341E-C186-47C1-A2D1-B2241B1DA12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -93,9 +95,6 @@
     <t>Novamente na barra lateral, no local onde tem a foto, e o icone, que ao ser cricado, irá direcionar o usuário para escolher a foto de perfil e irá salva-la</t>
   </si>
   <si>
-    <t>Perfil</t>
-  </si>
-  <si>
     <t>Botão dashboard</t>
   </si>
   <si>
@@ -106,9 +105,6 @@
   </si>
   <si>
     <t>O usuário poderá visualizar os insigths do seu perfil e irá poder tomar ações com base nos números.</t>
-  </si>
-  <si>
-    <t>Página que irá conter os posts usuário e as interações nele contidas.</t>
   </si>
 </sst>
 </file>
@@ -257,8 +253,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB492566-914C-474C-93F8-0062C906D4F9}" name="Tabela1" displayName="Tabela1" ref="C2:F11" totalsRowShown="0" dataDxfId="4">
-  <autoFilter ref="C2:F11" xr:uid="{AB492566-914C-474C-93F8-0062C906D4F9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB492566-914C-474C-93F8-0062C906D4F9}" name="Tabela1" displayName="Tabela1" ref="C2:F10" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="C2:F10" xr:uid="{AB492566-914C-474C-93F8-0062C906D4F9}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{106703E8-76B8-4FC3-87BC-85D44E3AB02D}" name="Titulo" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{B1F2CA74-961B-42BB-A402-29C1BDD79CCC}" name="Descrição" dataDxfId="2"/>
@@ -589,17 +585,17 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F9" sqref="C9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.125" customWidth="1"/>
-    <col min="2" max="2" width="3.75" customWidth="1"/>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="23.25" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25">
@@ -706,66 +702,53 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="57">
+    <row r="9" spans="1:6" ht="72.75">
       <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E9" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="71.25">
+    <row r="10" spans="1:6" ht="87">
       <c r="C10" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="85.5">
-      <c r="C11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="5">
-        <v>8</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+    <row r="11" spans="1:6" ht="15">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="15">
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="15">
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6">
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
+    <row r="14" spans="1:6" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
